--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C715D9-F012-4651-826D-A961763841F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C61078-DB04-4590-907E-101A9400C990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeXuat" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Xuất Phiếu nhặt hàng</t>
   </si>
   <si>
-    <t>-Trường Ghi chú đang lấy thông tin từ db</t>
-  </si>
-  <si>
     <t>Truong</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>Check Danh mục hàng hóa, Danh mục kho</t>
-  </si>
-  <si>
-    <t>-Trường Ghi chú luôn để trống</t>
   </si>
   <si>
     <t>-Các khách hàng khác dùng biểu mẫu giống hệt Thanh Thúy chỉ khác là không có header</t>
@@ -237,6 +231,14 @@
   </si>
   <si>
     <t>Tính toán số lượng đáp ứng theo các yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>-Trường Ghi chú đang lấy thông tin từ db.
+- Các border trong bảng hàng hóa có chỗ đậm chỗ nhạt.</t>
+  </si>
+  <si>
+    <t>-Trường Ghi chú luôn để trống.
+- Các border trong bảng hàng hóa để cùng kích thước.</t>
   </si>
 </sst>
 </file>
@@ -714,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,13 +1092,13 @@
         <v>43508</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
@@ -1111,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>41</v>
@@ -1123,13 +1125,13 @@
         <v>43508</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1151,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,7 +1237,7 @@
       </c>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1249,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>15</v>
@@ -1261,7 +1263,7 @@
         <v>43720</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>13</v>
@@ -1282,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>28</v>
@@ -1291,7 +1293,7 @@
         <v>43720</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>13</v>
@@ -1303,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>43</v>
@@ -1312,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="26" t="s">
@@ -1328,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C61078-DB04-4590-907E-101A9400C990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C68C3-7A1D-4CC1-A4CB-97D02B9BFF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>TT</t>
   </si>
@@ -233,12 +233,38 @@
     <t>Tính toán số lượng đáp ứng theo các yêu cầu xuất kho</t>
   </si>
   <si>
+    <t>Phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>Xuất phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>Chân ký đầu tiên đang bị đẩy lên 1 dòng so với chân ký khác</t>
+  </si>
+  <si>
+    <t>Các chân ký thành hàng</t>
+  </si>
+  <si>
     <t>-Trường Ghi chú đang lấy thông tin từ db.
-- Các border trong bảng hàng hóa có chỗ đậm chỗ nhạt.</t>
+-Các border trong bảng hàng hóa có chỗ đậm chỗ nhạt.
+-Độ rộng các cột không hợp lý với dữ liệu thực tế</t>
   </si>
   <si>
     <t>-Trường Ghi chú luôn để trống.
-- Các border trong bảng hàng hóa để cùng kích thước.</t>
+-Các border trong bảng hàng hóa để cùng kích thước.
+-Căn độ rộng các cột theo như ảnh chụp đã gửi trong skype</t>
+  </si>
+  <si>
+    <t>Thực hiện lỗi số 2 trước khi thực hiện lỗi này</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Doanh thu bán hàng theo ngày</t>
+  </si>
+  <si>
+    <t>Định hướng sản phẩm ko hỗ trợ nghiệp vụ này =&gt; không cần tổng hợp dữ liệu đẩy vào bảng nghiệp vụ nữa đỡ tốn dung lượng</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1263,7 @@
       </c>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1251,10 +1277,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>15</v>
@@ -1298,7 +1324,9 @@
       <c r="J4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
@@ -1332,6 +1360,70 @@
       <c r="K5" s="31" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="15">
+        <v>43720</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="15">
+        <v>43720</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1339,7 +1431,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{0BCB52E2-9031-4C94-9AFD-7ED6FE65F201}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 D8:D1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
   </dataValidations>

--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C68C3-7A1D-4CC1-A4CB-97D02B9BFF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7722208-137F-467C-8261-26703FD670FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>TT</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Tạo mới đối tác</t>
   </si>
   <si>
-    <t>Ấn nút Bổ sung đối tác trên màn hình Tạo mới yêu cầu xuất kho thì không lưu lại được.</t>
-  </si>
-  <si>
     <t>Xuất Phiếu nhặt hàng</t>
   </si>
   <si>
@@ -245,26 +242,35 @@
     <t>Các chân ký thành hàng</t>
   </si>
   <si>
+    <t>Thực hiện lỗi số 2 trước khi thực hiện lỗi này</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Doanh thu bán hàng theo ngày</t>
+  </si>
+  <si>
+    <t>Định hướng sản phẩm ko hỗ trợ nghiệp vụ này =&gt; không cần tổng hợp dữ liệu đẩy vào bảng nghiệp vụ nữa đỡ tốn dung lượng</t>
+  </si>
+  <si>
     <t>-Trường Ghi chú đang lấy thông tin từ db.
 -Các border trong bảng hàng hóa có chỗ đậm chỗ nhạt.
--Độ rộng các cột không hợp lý với dữ liệu thực tế</t>
+-Độ rộng các cột không hợp lý với dữ liệu thực tế.
+-Thứ tự hàng hóa lúc nhập liệu và lúc xuất ra không giống nhau.</t>
   </si>
   <si>
     <t>-Trường Ghi chú luôn để trống.
 -Các border trong bảng hàng hóa để cùng kích thước.
--Căn độ rộng các cột theo như ảnh chụp đã gửi trong skype</t>
-  </si>
-  <si>
-    <t>Thực hiện lỗi số 2 trước khi thực hiện lỗi này</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Doanh thu bán hàng theo ngày</t>
-  </si>
-  <si>
-    <t>Định hướng sản phẩm ko hỗ trợ nghiệp vụ này =&gt; không cần tổng hợp dữ liệu đẩy vào bảng nghiệp vụ nữa đỡ tốn dung lượng</t>
+-Căn độ rộng các cột theo như ảnh chụp đã gửi trong skype
+-Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1)</t>
+  </si>
+  <si>
+    <t>-Ấn nút Bổ sung đối tác trên màn hình Tạo mới yêu cầu xuất kho thì không lưu lại được.
+-Thứ tự hàng hóa lúc nhập liệu và lúc xem không giống nhau.</t>
+  </si>
+  <si>
+    <t>-Lưu thứ tự hàng hóa vào trường mjr_order_detail.goods_order và mjr_trans_detail.goods_order</t>
   </si>
 </sst>
 </file>
@@ -742,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,13 +1124,13 @@
         <v>43508</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
@@ -1139,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>41</v>
@@ -1151,13 +1157,13 @@
         <v>43508</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1186,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,7 +1196,7 @@
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" customWidth="1"/>
     <col min="8" max="9" width="12.26953125" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" customWidth="1"/>
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1245,10 +1251,12 @@
       <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="G2" s="26" t="s">
         <v>28</v>
       </c>
@@ -1263,7 +1271,7 @@
       </c>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1271,16 +1279,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>15</v>
@@ -1289,7 +1297,7 @@
         <v>43720</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>13</v>
@@ -1304,13 +1312,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>28</v>
@@ -1319,13 +1327,13 @@
         <v>43720</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1333,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>43</v>
@@ -1342,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="26" t="s">
@@ -1358,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1366,19 +1374,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>28</v>
@@ -1387,7 +1395,7 @@
         <v>43720</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>13</v>
@@ -1399,16 +1407,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
@@ -1418,7 +1426,7 @@
         <v>43720</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>13</v>

--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7722208-137F-467C-8261-26703FD670FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0F33B-A790-4E8A-BEA7-C35418EDDAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,17 +260,17 @@
 -Thứ tự hàng hóa lúc nhập liệu và lúc xuất ra không giống nhau.</t>
   </si>
   <si>
+    <t>-Ấn nút Bổ sung đối tác trên màn hình Tạo mới yêu cầu xuất kho thì không lưu lại được.
+-Thứ tự hàng hóa lúc nhập liệu và lúc xem không giống nhau.</t>
+  </si>
+  <si>
+    <t>-Lưu thứ tự hàng hóa vào trường mjr_order_detail.goods_order và mjr_trans_detail.goods_order</t>
+  </si>
+  <si>
     <t>-Trường Ghi chú luôn để trống.
 -Các border trong bảng hàng hóa để cùng kích thước.
 -Căn độ rộng các cột theo như ảnh chụp đã gửi trong skype
--Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1)</t>
-  </si>
-  <si>
-    <t>-Ấn nút Bổ sung đối tác trên màn hình Tạo mới yêu cầu xuất kho thì không lưu lại được.
--Thứ tự hàng hóa lúc nhập liệu và lúc xem không giống nhau.</t>
-  </si>
-  <si>
-    <t>-Lưu thứ tự hàng hóa vào trường mjr_order_detail.goods_order và mjr_trans_detail.goods_order</t>
+-Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1).</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>28</v>
@@ -1288,7 +1288,7 @@
         <v>62</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>15</v>

--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0F33B-A790-4E8A-BEA7-C35418EDDAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D4E2F2-8119-49EF-9503-82677D28858C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,22 @@
     <t>-Lưu thứ tự hàng hóa vào trường mjr_order_detail.goods_order và mjr_trans_detail.goods_order</t>
   </si>
   <si>
-    <t>-Trường Ghi chú luôn để trống.
+    <r>
+      <t xml:space="preserve">-Trường Ghi chú luôn để trống.
 -Các border trong bảng hàng hóa để cùng kích thước.
 -Căn độ rộng các cột theo như ảnh chụp đã gửi trong skype
--Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1).</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -460,6 +478,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,7 +1220,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1337,35 +1371,35 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="36">
         <v>43720</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>50</v>
       </c>
     </row>

--- a/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
+++ b/5.Reference/191111_TrienKhai_ThanhThuy/191202_Loi_Sua_ThanhThuy.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D4E2F2-8119-49EF-9503-82677D28858C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E848FEBF-0DF5-4236-9744-954C6D3C2243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeXuat" sheetId="1" r:id="rId1"/>
     <sheet name="Loi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DeXuat!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DeXuat!$A$1:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Loi!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>TT</t>
   </si>
@@ -134,17 +134,6 @@
   </si>
   <si>
     <t>Yêu tiên cao nhất</t>
-  </si>
-  <si>
-    <t>1. Bỏ VT-TB
-2. Bỏ Đơn giá - Thành Tiền
-3. Bỏ serial
-4. Thêm cột Ngày sản xuất - Vị trí - Ghi chú
-5. Bỏ Nợ-Có
-6. Chân ký cuối (Chuyển thành Trưởng bộ phận/Trưởng phòng)
-7. Bổ sung Tổng số lượng thực nhập
-8. Bỏ tổng thành tiền - Bằng chữ
-9. Sửa header của phiếu</t>
   </si>
   <si>
     <t>Đã sửa xong</t>
@@ -239,9 +228,6 @@
     <t>Chân ký đầu tiên đang bị đẩy lên 1 dòng so với chân ký khác</t>
   </si>
   <si>
-    <t>Các chân ký thành hàng</t>
-  </si>
-  <si>
     <t>Thực hiện lỗi số 2 trước khi thực hiện lỗi này</t>
   </si>
   <si>
@@ -283,6 +269,21 @@
       </rPr>
       <t>-Khi lấy hàng hóa lấy theo trường goods_order asc (việc ghi dữ liệu vào trường này sẽ được sửa trong nội dung số 1).</t>
     </r>
+  </si>
+  <si>
+    <t>Các chân ký thẳng hàng</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm trường Tổng số lượng</t>
+  </si>
+  <si>
+    <t>26/12/2019</t>
+  </si>
+  <si>
+    <t>Thông tin kho/ Thông tin giao dịch</t>
+  </si>
+  <si>
+    <t>Export excel để định dạng number cho các trường có dữ liệu kiểu số</t>
   </si>
 </sst>
 </file>
@@ -386,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -436,15 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -458,21 +450,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -780,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,7 +838,7 @@
         <v>43508</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>12</v>
@@ -896,7 +873,7 @@
         <v>43508</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>12</v>
@@ -931,7 +908,7 @@
         <v>43508</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>12</v>
@@ -964,13 +941,13 @@
         <v>43508</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -985,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -997,13 +974,13 @@
         <v>43508</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1011,19 +988,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>28</v>
@@ -1032,7 +1009,7 @@
         <v>43508</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>12</v>
@@ -1044,19 +1021,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>28</v>
@@ -1065,7 +1042,7 @@
         <v>43508</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>12</v>
@@ -1085,8 +1062,8 @@
       <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>42</v>
+      <c r="E9" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>25</v>
@@ -1105,105 +1082,136 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>15</v>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="15">
         <v>43508</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="E11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9">
         <v>43508</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="I11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23">
-        <v>43508</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1219,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,186 +1281,187 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="28">
         <v>43720</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="29"/>
+      <c r="I2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="28">
+        <v>43720</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="15">
-        <v>43720</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="27"/>
+      <c r="J3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="28">
+        <v>43720</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="J4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H5" s="28">
         <v>43720</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="I5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35" t="s">
+      <c r="E6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H6" s="28">
         <v>43720</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="15">
-        <v>43720</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="30"/>
+      <c r="I6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="30"/>
+      <c r="E7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1460,12 +1469,12 @@
         <v>43720</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
